--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\fmh_android_15_03_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{457CA221-883E-4B37-A62B-FB762FE3CDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB42C037-36C3-4148-B1FF-1CE28B8AA91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1221CA04-EC26-4F0B-9CAF-97257C3D1A7E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1221CA04-EC26-4F0B-9CAF-97257C3D1A7E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Чек-лист" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Переход в раздел через AppBar</t>
   </si>
   <si>
-    <t>Отображение актуальных новостей</t>
-  </si>
-  <si>
     <t>Переход к разделу со всеми новостями</t>
   </si>
   <si>
@@ -127,6 +124,30 @@
   </si>
   <si>
     <t>Открытие ссылки на условия использования</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Отображение раздела с актуальными новостями</t>
+  </si>
+  <si>
+    <t>Вид теста</t>
+  </si>
+  <si>
+    <t>Ручной</t>
+  </si>
+  <si>
+    <t>Авто/Ручной</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Заеден баг-репорт</t>
   </si>
 </sst>
 </file>
@@ -150,7 +171,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +202,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,11 +281,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -269,18 +360,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,21 +692,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212ED96C-263F-422B-967C-9A5C336C356F}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,9 +721,15 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -634,19 +738,31 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="D2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -656,29 +772,47 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="D4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="D5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -688,31 +822,49 @@
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="D7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -720,101 +872,163 @@
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="D10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="D12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="D15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
       <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>14</v>
@@ -822,27 +1036,49 @@
       <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="D20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
